--- a/xlsx/北达科他州_intext.xlsx
+++ b/xlsx/北达科他州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="358">
   <si>
     <t>北达科他州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_北达科他州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>北達科他州州旗</t>
+    <t>北达科他州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A5_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>俾斯麥 (北達科他州)</t>
+    <t>俾斯麦 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%88%88_(%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E9%81%94%E6%9E%97%E6%99%AE</t>
   </si>
   <si>
-    <t>傑克·達林普</t>
+    <t>杰克·达林普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_North_Dakota</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%8A%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國舊西部</t>
+    <t>美国旧西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%A7%91%E4%BB%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>達科他領地</t>
+    <t>达科他领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%A7%91%E5%A1%94%E6%97%8F</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E6%B2%B3</t>
   </si>
   <si>
-    <t>密蘇里河</t>
+    <t>密苏里河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%8D%A1%E5%8A%A0%E7%BB%B4%E4%BA%9A%E6%B9%96</t>
@@ -293,31 +293,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A6%8F%E5%85%8B%E6%96%AF_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>大福克斯 (北達科他州)</t>
+    <t>大福克斯 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國空軍</t>
+    <t>美国空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E8%AB%BE%E7%89%B9_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>邁諾特 (北達科他州)</t>
+    <t>迈诺特 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
+    <t>南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%96%AF%E5%96%80%E5%BE%B9%E6%BA%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>薩斯喀徹溫省</t>
+    <t>萨斯喀彻温省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E4%BA%A7</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%95%E5%9C%B0</t>
   </si>
   <si>
-    <t>濕地</t>
+    <t>湿地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A2%E6%B2%B3</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B0%BC%E4%BC%AF%E6%B9%96</t>
   </si>
   <si>
-    <t>溫尼伯湖</t>
+    <t>温尼伯湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8A%A0%E5%B7%A5</t>
@@ -389,25 +389,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%B0%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>本地生產總值</t>
+    <t>本地生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%8A%B1</t>
   </si>
   <si>
-    <t>太陽花</t>
+    <t>太阳花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%9B%9E</t>
   </si>
   <si>
-    <t>火雞</t>
+    <t>火鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B0%BC%E4%BC%AF</t>
   </si>
   <si>
-    <t>溫尼伯</t>
+    <t>温尼伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>西奥多·羅斯福國家公園</t>
+    <t>西奥多·罗斯福国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E8%BE%BE_(%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>衛理公會</t>
+    <t>卫理公会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_North_Dakota</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%84%80%E5%99%A8</t>
   </si>
   <si>
-    <t>德州儀器</t>
+    <t>德州仪器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/94%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>94號州際公路</t>
+    <t>94号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -791,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -875,9 +875,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -947,19 +944,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1001,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1013,25 +1010,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
 </sst>
 </file>
@@ -5667,7 +5664,7 @@
         <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5693,10 +5690,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5722,10 +5719,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5751,10 +5748,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5780,10 +5777,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5809,10 +5806,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5838,10 +5835,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5867,10 +5864,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5896,10 +5893,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5925,10 +5922,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5954,10 +5951,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5983,10 +5980,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6012,10 +6009,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6041,10 +6038,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6070,10 +6067,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6099,10 +6096,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6128,10 +6125,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6157,10 +6154,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6186,10 +6183,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6215,10 +6212,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6244,10 +6241,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6273,10 +6270,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6302,10 +6299,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6331,10 +6328,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6360,10 +6357,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6389,10 +6386,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6418,10 +6415,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6447,10 +6444,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6476,10 +6473,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6505,10 +6502,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6534,10 +6531,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6563,10 +6560,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6592,10 +6589,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6621,10 +6618,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6650,10 +6647,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6679,10 +6676,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6708,10 +6705,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
